--- a/mbs-perturbation/greedy/MLP/nearmiss/greedy-mlp-nearmiss-results.xlsx
+++ b/mbs-perturbation/greedy/MLP/nearmiss/greedy-mlp-nearmiss-results.xlsx
@@ -467,16 +467,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.7692307692307693</v>
+        <v>0.8660714285714286</v>
       </c>
       <c r="C2" t="n">
-        <v>0.9956709956709957</v>
+        <v>0.9326923076923077</v>
       </c>
       <c r="D2" t="n">
-        <v>0.8679245283018867</v>
+        <v>0.8981481481481481</v>
       </c>
       <c r="E2" t="n">
-        <v>0.9232117089259947</v>
+        <v>0.8866494082840237</v>
       </c>
     </row>
     <row r="3">
@@ -486,16 +486,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.8988326848249028</v>
+        <v>0.9043062200956937</v>
       </c>
       <c r="C3" t="n">
-        <v>1</v>
+        <v>0.9086538461538461</v>
       </c>
       <c r="D3" t="n">
-        <v>0.9467213114754099</v>
+        <v>0.9064748201438848</v>
       </c>
       <c r="E3" t="n">
-        <v>0.993422162253331</v>
+        <v>0.9283700073964497</v>
       </c>
     </row>
     <row r="4">
@@ -505,16 +505,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.9166666666666666</v>
+        <v>0.9065420560747663</v>
       </c>
       <c r="C4" t="n">
-        <v>1</v>
+        <v>0.9326923076923077</v>
       </c>
       <c r="D4" t="n">
-        <v>0.9565217391304348</v>
+        <v>0.919431279620853</v>
       </c>
       <c r="E4" t="n">
-        <v>0.9891306384812879</v>
+        <v>0.9865014792899409</v>
       </c>
     </row>
     <row r="5">
@@ -524,16 +524,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.9467213114754098</v>
+        <v>0.6366459627329193</v>
       </c>
       <c r="C5" t="n">
-        <v>1</v>
+        <v>0.9855769230769231</v>
       </c>
       <c r="D5" t="n">
-        <v>0.9726315789473684</v>
+        <v>0.7735849056603774</v>
       </c>
       <c r="E5" t="n">
-        <v>0.9924712968191228</v>
+        <v>0.7729058801775148</v>
       </c>
     </row>
     <row r="6">
@@ -543,16 +543,16 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.5072463768115942</v>
+        <v>0.5674931129476584</v>
       </c>
       <c r="C6" t="n">
-        <v>0.4565217391304348</v>
+        <v>0.9903846153846154</v>
       </c>
       <c r="D6" t="n">
-        <v>0.4805491990846681</v>
+        <v>0.7215411558669002</v>
       </c>
       <c r="E6" t="n">
-        <v>0.450103519668737</v>
+        <v>0.6042899408284025</v>
       </c>
     </row>
     <row r="7">
@@ -562,16 +562,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.8077395618018685</v>
+        <v>0.7762117560844933</v>
       </c>
       <c r="C7" t="n">
-        <v>0.8904385469602861</v>
+        <v>0.95</v>
       </c>
       <c r="D7" t="n">
-        <v>0.8448696713879537</v>
+        <v>0.8438360618880327</v>
       </c>
       <c r="E7" t="n">
-        <v>0.8696678652296947</v>
+        <v>0.8357433431952662</v>
       </c>
     </row>
   </sheetData>
